--- a/medicine/Enfance/Michel_Grisolia/Michel_Grisolia.xlsx
+++ b/medicine/Enfance/Michel_Grisolia/Michel_Grisolia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Michel Grisolia, né le 12 août 1948 à Nice et mort le 29 mars 2005 à Paris 10e[1], est un homme de lettres français à la fois romancier, scénariste, journaliste, critique littéraire et parolier.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Michel Grisolia, né le 12 août 1948 à Nice et mort le 29 mars 2005 à Paris 10e, est un homme de lettres français à la fois romancier, scénariste, journaliste, critique littéraire et parolier.
 </t>
         </is>
       </c>
@@ -511,15 +523,17 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils d’un artisan chromeur-nickeleur. D’abord élève à Nice au lycée Masséna, il monte en région parisienne où il finit ses études secondaires au lycée Lakanal de Sceaux et à l’Institution des pères maristes Saint-Vincent à Senlis.
 Après le baccalauréat, il se fait connaître comme le parolier de Marie-Paule Belle, son amie d’enfance, mais aussi de Fabienne Thibeault, de Régine, de Demis Roussos et des Étoiles. C'est par la chanson qu’il vient à l’écriture. En collaboration avec Françoise Mallet-Joris, il publie ainsi en 1975 une biographie de Juliette Gréco dans la collection de son ami Lucien Rioux chez Seghers. 
-Il collabore alors au Nouvel Observateur, son ami Jean-Louis Bory l’ayant fait entrer pour l’aider à rédiger les notices de films que les pages guides lui réclamait. Il y publie également des critiques de cinéma, notamment pour la revue de la Fédération des ciné-clubs, La Nouvelle Revue française, Positif, Le Nouveau Cinémonde, Les Lettres françaises, Mystère Magazine et L'Evénement du jeudi[2].
+Il collabore alors au Nouvel Observateur, son ami Jean-Louis Bory l’ayant fait entrer pour l’aider à rédiger les notices de films que les pages guides lui réclamait. Il y publie également des critiques de cinéma, notamment pour la revue de la Fédération des ciné-clubs, La Nouvelle Revue française, Positif, Le Nouveau Cinémonde, Les Lettres françaises, Mystère Magazine et L'Evénement du jeudi.
 Il se lance véritablement dans l’écriture en 1977 avec L'Inspecteur de la mer, prix Mystère de la critique 1978 et adapté l’année suivante au cinéma sous le titre de Flic ou voyou. Édité chez J.C. Lattès, il enchaîne ensuite avec des romans d'aventures comme Barbarie Coast (1978) ou Haute Mer (1980), d'atmosphère comme Les Guetteurs (1983) ou La Chaise blanche (1986), ainsi que des nouvelles comme L'Homme devant le square (1984).
 Parallèlement, à partir de 1979, il écrit des scénarios, tels L'Étoile du Nord, Le Choix des armes ou Le Grand Frère. Prix du Rotary Club pour Les Guetteurs (1983), il obtient aussi le prix du roman d'aventures pour Les Sœurs du Nord (1986).
 Cessant sa collaboration au Nouvel Observateur en février 1981, il travaille pour la rubrique Livres de L'Express.
-Il est mort le 29 mars 2005, à l'âge de 56 ans, des suites d'un accident vasculaire cérébral[3].
+Il est mort le 29 mars 2005, à l'âge de 56 ans, des suites d'un accident vasculaire cérébral.
 </t>
         </is>
       </c>
@@ -550,7 +564,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 L'Inspecteur de la mer, Éditions Jean-Claude Lattès, 1977 ; réédition sous le titre Flic ou Voyou, Le Livre de poche no 7442, 1980 (prix Mystère de la critique)
 Barbarie Coast, Éditions Jean-Claude Lattès, 1978 ; réédition, 10/18 no 2031, 1989 ; réédition, Le Livre de poche no 7463, 1982
 Haute Mer, Éditions Jean-Claude Lattès, 1980 ; réédition, Le Livre de poche no 7471, 1983
@@ -575,15 +595,7 @@
 L'Apôtre des Indes, Éditions Bayard, 1997
 Les Jardins du tigre, Éditions Albin Michel, 1999 ; réédition, Le Livre de poche no 15188, 2001
 L'Heure d'hiver, Éditions Albin Michel, Roman noir, 2000 ; réédition, Le Livre de poche no 15383, 2002
-Littérature d'enfance et de jeunesse
-Coup de feu dans la nuit, Éditions Bayard Presse, 1988
-Menace dans la nuit, Éditions Bayard no 5, 1991
-L'Été rouge, Éditions Hachette, coll. Vertige no 809, 1997 ; réédition, Le Livre de poche jeunesse no 1005, 2004
-Recueils de nouvelles
-L'Homme devant le square, Éditions Jean-Claude Lattès, 1984 (prix littéraire Nouvelles)
-La Petite Amie du crime, Librairie des Champs-Élysées, Le Masque no 2227 1995
-Biographie
-Juliette Gréco, Seghers, 1975 ; réédition, Seghers, coll. Poésie et chansons no 35, 1999 (en collaboration avec Françoise Mallet-Joris)</t>
+</t>
         </is>
       </c>
     </row>
@@ -608,12 +620,129 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Coup de feu dans la nuit, Éditions Bayard Presse, 1988
+Menace dans la nuit, Éditions Bayard no 5, 1991
+L'Été rouge, Éditions Hachette, coll. Vertige no 809, 1997 ; réédition, Le Livre de poche jeunesse no 1005, 2004</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Michel_Grisolia</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Michel_Grisolia</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Recueils de nouvelles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>L'Homme devant le square, Éditions Jean-Claude Lattès, 1984 (prix littéraire Nouvelles)
+La Petite Amie du crime, Librairie des Champs-Élysées, Le Masque no 2227 1995</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Michel_Grisolia</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Michel_Grisolia</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Juliette Gréco, Seghers, 1975 ; réédition, Seghers, coll. Poésie et chansons no 35, 1999 (en collaboration avec Françoise Mallet-Joris)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Michel_Grisolia</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Michel_Grisolia</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cinéma
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Cinéma</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 1979 : Flic ou voyou de Georges Lautner, inspiré de son roman L'Inspecteur de la mer
 1980 : Je vous aime de Claude Berri
 1981 : Le Choix des armes avec Alain Corneau
@@ -634,7 +763,43 @@
 1999 : Premières Neiges (Tétra Média Films)
 2000 : Sang neuf de Régis Wargnier
 2000 : La Soutane turquoise de Jean-Pierre Mocky
-Télévision
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Michel_Grisolia</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Michel_Grisolia</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Télévision</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 1988 : Imogène, épisode Imogène, vous êtes impossible de François Leterrier (avec Martin Lamotte, d'après le roman de Charles Exbrayat)
 2000 : Maigret et le fou de St Marguerite
 2000 : Maigret et la fenêtre ouverte de Pierre Granier-Deferre
@@ -648,34 +813,39 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Michel_Grisolia</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Michel_Grisolia</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Prix
-Prix Mystère de la critique 1978 pour L’Inspecteur de la mer[4]
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Prix</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Prix Mystère de la critique 1978 pour L’Inspecteur de la mer
 Prix du roman d'aventures 1986
 Prix Roland-Dorgelès 1987
 Prix Valentine-de-Wolmar 1987</t>
